--- a/src/analysis_examples/circadb/results_lomb/cosinor_10498273_tm4sf1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10498273_tm4sf1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24759595506705206, 0.3415580200205935]</t>
+          <t>[0.2481946000154413, 0.34095937507220425]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.550448658349524e-11</v>
+        <v>1.218025680316259e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.550448658349524e-11</v>
+        <v>1.218025680316259e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.358526552903695</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.566193496203856, 0.6223177206278281]</t>
+          <t>[0.5661847920886989, 0.6223264247429852]</t>
         </is>
       </c>
       <c r="U2" t="n">
